--- a/Shading Trees/Charts/Production Change by Commodities.xlsx
+++ b/Shading Trees/Charts/Production Change by Commodities.xlsx
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-8.02589714566918</v>
+        <v>-42964.35063398977</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.07721048263291246</v>
+        <v>-413.3323703176269</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.03916637600301299</v>
+        <v>-209.3780042950629</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.007796231071601651</v>
+        <v>41.90699229350223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.00506357178648439</v>
+        <v>-27.10680516552109</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.1252340130813978</v>
+        <v>-670.3845534798008</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.2062640102732926</v>
+        <v>-1103.954848074912</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.08567151056946182</v>
+        <v>-458.453147936992</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.2873030792584922</v>
+        <v>-1537.904399888625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.03160690746391774</v>
+        <v>-169.1976980676666</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.4493733704667538</v>
+        <v>-2405.102012099785</v>
       </c>
     </row>
   </sheetData>
